--- a/WeatherMapping.xlsx
+++ b/WeatherMapping.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Project 8\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\GitHub\weather-api-dashboard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87A45804-657D-4DB7-9385-8159330FCA17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9325A6A3-81D2-4647-B0E7-E4D2F1BD3F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9D1BB4E4-DDBA-471B-8C88-D21BDB03DC2A}"/>
   </bookViews>
@@ -5497,15 +5497,6 @@
     <t>Rain/Snow/Storms</t>
   </si>
   <si>
-    <t>C:\Users\HP\Documents\Project 8\image\sunny.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Project 8\image\cloudy.png</t>
-  </si>
-  <si>
-    <t>C:\Users\HP\Documents\Project 8\image\storm.png</t>
-  </si>
-  <si>
     <t>Advices</t>
   </si>
   <si>
@@ -5534,6 +5525,15 @@
   </si>
   <si>
     <t>Find a safe place indoors during a thunderstorm.</t>
+  </si>
+  <si>
+    <t>https://github.com/johnfritzel/weather-api-dashboard/blob/main/images/cloudy.png</t>
+  </si>
+  <si>
+    <t>https://github.com/johnfritzel/weather-api-dashboard/blob/main/images/sunny.png</t>
+  </si>
+  <si>
+    <t>https://github.com/johnfritzel/weather-api-dashboard/blob/main/images/storm.png</t>
   </si>
 </sst>
 </file>
@@ -28964,7 +28964,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -28985,7 +28985,7 @@
         <v>1807</v>
       </c>
       <c r="D1" t="s">
-        <v>1814</v>
+        <v>1811</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -28997,10 +28997,10 @@
         <v>1808</v>
       </c>
       <c r="C2" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
       <c r="D2" t="s">
-        <v>1815</v>
+        <v>1812</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -29011,10 +29011,10 @@
         <v>1808</v>
       </c>
       <c r="C3" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
       <c r="D3" t="s">
-        <v>1816</v>
+        <v>1813</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -29025,10 +29025,10 @@
         <v>1809</v>
       </c>
       <c r="C4" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D4" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -29039,10 +29039,10 @@
         <v>1809</v>
       </c>
       <c r="C5" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D5" t="s">
-        <v>1818</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -29053,10 +29053,10 @@
         <v>1809</v>
       </c>
       <c r="C6" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D6" t="s">
-        <v>1819</v>
+        <v>1816</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -29067,10 +29067,10 @@
         <v>1810</v>
       </c>
       <c r="C7" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D7" t="s">
-        <v>1820</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -29081,10 +29081,10 @@
         <v>1810</v>
       </c>
       <c r="C8" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D8" t="s">
-        <v>1821</v>
+        <v>1818</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -29095,10 +29095,10 @@
         <v>1808</v>
       </c>
       <c r="C9" t="s">
-        <v>1811</v>
+        <v>1822</v>
       </c>
       <c r="D9" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -29109,10 +29109,10 @@
         <v>1809</v>
       </c>
       <c r="C10" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D10" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -29123,10 +29123,10 @@
         <v>1809</v>
       </c>
       <c r="C11" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D11" t="s">
-        <v>1822</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -29137,10 +29137,10 @@
         <v>1809</v>
       </c>
       <c r="C12" t="s">
-        <v>1812</v>
+        <v>1821</v>
       </c>
       <c r="D12" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -29151,10 +29151,10 @@
         <v>1810</v>
       </c>
       <c r="C13" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D13" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -29165,10 +29165,10 @@
         <v>1810</v>
       </c>
       <c r="C14" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D14" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -29179,10 +29179,10 @@
         <v>1810</v>
       </c>
       <c r="C15" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D15" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -29193,10 +29193,10 @@
         <v>1810</v>
       </c>
       <c r="C16" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D16" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -29207,10 +29207,10 @@
         <v>1810</v>
       </c>
       <c r="C17" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D17" t="s">
-        <v>1817</v>
+        <v>1814</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -29221,10 +29221,10 @@
         <v>1810</v>
       </c>
       <c r="C18" t="s">
-        <v>1813</v>
+        <v>1823</v>
       </c>
       <c r="D18" t="s">
-        <v>1823</v>
+        <v>1820</v>
       </c>
     </row>
   </sheetData>
